--- a/medicine/Enfance/Eno_Raud/Eno_Raud.xlsx
+++ b/medicine/Enfance/Eno_Raud/Eno_Raud.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eno Raud, né le 15 février 1928 à Tartu et mort le 9 juillet 1996 (à 68 ans) à Haapsalu, est un écrivain estonien de littérature jeunesse[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eno Raud, né le 15 février 1928 à Tartu et mort le 9 juillet 1996 (à 68 ans) à Haapsalu, est un écrivain estonien de littérature jeunesse.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils du poète Mart Raud, Eno Raud dans les années 1930, publie les petits récits dans la revue pour enfants Laste Rõõm sous le pseudonyme d'Eno Sammalhabe. Il est diplômé en lettres de l'université de Tartu en 1952. De 1952 à 1956, il travaille à la maison d'édition estonienne Eesti Riiklik Kirjastus.
 Il se fait connaitre grâce à son cycle Naksitrallid, Jälle need naksitrallid qui raconte les aventures de trois petits trolls (1972, 1975, 1979, 1982) et Sipsik (1962), l'histoire d'une poupée de chiffon qui prend vie - ce live est illustré par Edgar Valter.
@@ -546,8 +560,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Prose
-(et) Roostevaba mõõk, 1957
+          <t>Prose</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(et) Roostevaba mõõk, 1957
 (et) Sõjakirves on välja kaevatud, 1959
 (et) Mõru kook, 1959
 (et) Kurjad mehikesed, 1961
@@ -576,22 +595,7 @@
 (et) Ninatark muna, 1980
 (et) Suvejutte veski alt, 1982
 (et) Kassid ja hiired, 1985
-(et) Siniste kaantega klade, 1993
-Poésie
-(et) Kalakari salakaril, 1975
-(et) Käbi käbihäbi, 1977
-(et) Padakonna vada, 1985
-(et) Kilul oli vilu, 1987
-(et) Kala kõnnib jala, 1997
-Autres
-(et) Kaval-Ants et Vanapagan, 1958
-(et) Suur Tõll, 1959
-(et) Kalevipoeg, 1961
-(et) Kilplased, 1962
-(et) Tark mees taskus, 1971
-Compilations
-(et) Kirju-Mirju, 1969
-(et) Kirju-Mirju vol 2, 1974</t>
+(et) Siniste kaantega klade, 1993</t>
         </is>
       </c>
     </row>
@@ -616,12 +620,131 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Poésie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(et) Kalakari salakaril, 1975
+(et) Käbi käbihäbi, 1977
+(et) Padakonna vada, 1985
+(et) Kilul oli vilu, 1987
+(et) Kala kõnnib jala, 1997</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Eno_Raud</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eno_Raud</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Autres</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(et) Kaval-Ants et Vanapagan, 1958
+(et) Suur Tõll, 1959
+(et) Kalevipoeg, 1961
+(et) Kilplased, 1962
+(et) Tark mees taskus, 1971</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Eno_Raud</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eno_Raud</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Compilations</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(et) Kirju-Mirju, 1969
+(et) Kirju-Mirju vol 2, 1974</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Eno_Raud</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eno_Raud</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1974 : (international) « Honor List »[2], de l' IBBY, pour Naksitrallid</t>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1974 : (international) « Honor List », de l' IBBY, pour Naksitrallid</t>
         </is>
       </c>
     </row>
